--- a/casper/data/letters.xlsx
+++ b/casper/data/letters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasper\lpthw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasper\lpthw\Kerstpuzzel 2020\casper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485AF37C-DBB3-4415-9163-4B043EE0D77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCE02C3-4BA4-4759-AE7D-ADDD277ED766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BF4FAFF-CE11-46CD-B7F2-492F4CABA729}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>2</v>
